--- a/figures and tables/2022 Tables/TableS_Priors.xlsx
+++ b/figures and tables/2022 Tables/TableS_Priors.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jblaszczak\Dropbox\UNR\Publications\2021 Productivity dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Documents\GitHub\RiverBiomass\figures and tables\2022 Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4DC98-9F03-410A-BABC-F2B38414F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17230"/>
+    <workbookView xWindow="6108" yWindow="2976" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,133 +59,54 @@
     <t>S-TS</t>
   </si>
   <si>
-    <t>Φ</t>
-  </si>
-  <si>
-    <t>α</t>
-  </si>
-  <si>
-    <t>β</t>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>obs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>proc</t>
-    </r>
-  </si>
-  <si>
     <t>LB-TS</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
-    <r>
-      <t>mean σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GPP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SD σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GPP</t>
-    </r>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <t>λ</t>
-  </si>
-  <si>
     <t>Initial</t>
+  </si>
+  <si>
+    <t>$\phi$</t>
+  </si>
+  <si>
+    <t>$\alpha$</t>
+  </si>
+  <si>
+    <t>$\beta$</t>
+  </si>
+  <si>
+    <t>$\sigma_{proc}$</t>
+  </si>
+  <si>
+    <t>$\sigma_{obs}$</t>
+  </si>
+  <si>
+    <t>$r_{max}$</t>
+  </si>
+  <si>
+    <t>$\lambda$</t>
+  </si>
+  <si>
+    <t>mean $\sigma_{GPP}$</t>
+  </si>
+  <si>
+    <t>SD $\sigma_{GPP}$</t>
+  </si>
+  <si>
+    <t>$\infty$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,9 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,240 +418,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>200</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
